--- a/LKG/Formative Assessment -4_class_LKG.xlsx
+++ b/LKG/Formative Assessment -4_class_LKG.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>Academic session</t>
   </si>
@@ -59,7 +59,7 @@
     <t>Result</t>
   </si>
   <si>
-    <t>2022-2023</t>
+    <t>2023-2024</t>
   </si>
   <si>
     <t>Formative Assessment -4</t>
@@ -68,7 +68,7 @@
     <t>Offline</t>
   </si>
   <si>
-    <t>Drawing</t>
+    <t>Rhymes</t>
   </si>
   <si>
     <t>Evaluating</t>
@@ -77,7 +77,7 @@
     <t>0 %</t>
   </si>
   <si>
-    <t>Eric Sharma</t>
+    <t>Nityam Kumar</t>
   </si>
   <si>
     <t>LKG</t>
@@ -89,52 +89,97 @@
     <t>Pass</t>
   </si>
   <si>
+    <t>Oral English</t>
+  </si>
+  <si>
     <t>Oral Maths</t>
   </si>
   <si>
-    <t>Rhymes</t>
+    <t>English</t>
   </si>
   <si>
     <t>Maths</t>
   </si>
   <si>
-    <t>English</t>
+    <t>Drawing</t>
+  </si>
+  <si>
+    <t>Abhik Upadhya</t>
+  </si>
+  <si>
+    <t>Pratisha Chetri</t>
+  </si>
+  <si>
+    <t>Ankita Sharki</t>
+  </si>
+  <si>
+    <t>Ayush Talukdar</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Oral English</t>
+    <t>Priyanshi Banik</t>
   </si>
   <si>
-    <t>Manab Mukherjee</t>
+    <t>Bheemank Sharma</t>
   </si>
   <si>
-    <t>Prince Sonar</t>
+    <t>Hardik Rout</t>
   </si>
   <si>
-    <t>Saurav Kumar</t>
+    <t>Dhruv Talukdar</t>
   </si>
   <si>
-    <t>Hriday Das</t>
+    <t>Sneha Dey</t>
   </si>
   <si>
-    <t>Yesh Raj Rai</t>
+    <t>Anshuman Boro</t>
   </si>
   <si>
-    <t>Yamini Kataky</t>
+    <t>Gunjan Deka</t>
   </si>
   <si>
-    <t>Riman Ali Mandal</t>
+    <t>Prakriti Chetry</t>
   </si>
   <si>
-    <t>Joy Chakrabarty</t>
+    <t>Toufid Alam</t>
   </si>
   <si>
-    <t>Sushant Sharma</t>
+    <t>Shristi Chetri</t>
   </si>
   <si>
-    <t>Omraj Singh</t>
+    <t>Agastya Chetri</t>
+  </si>
+  <si>
+    <t>Shakshi Sarma</t>
+  </si>
+  <si>
+    <t>Dhitika Barman</t>
+  </si>
+  <si>
+    <t>Ankush Yadav</t>
+  </si>
+  <si>
+    <t>Nandini Jha</t>
+  </si>
+  <si>
+    <t>Ronak Jha</t>
+  </si>
+  <si>
+    <t>Rakif Hussain</t>
+  </si>
+  <si>
+    <t>Anshu kumari</t>
+  </si>
+  <si>
+    <t>Arush Gwala</t>
+  </si>
+  <si>
+    <t>Rashidul Islam</t>
+  </si>
+  <si>
+    <t>Rajdeep Nath</t>
   </si>
 </sst>
 </file>
@@ -470,7 +515,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:N157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.0</v>
+        <v>25.0</v>
       </c>
       <c r="N2" t="s">
         <v>23</v>
@@ -604,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="N3" t="s">
         <v>23</v>
@@ -627,10 +672,10 @@
         <v>18</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -648,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="N4" t="s">
         <v>23</v>
@@ -692,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
       <c r="N5" t="s">
         <v>23</v>
@@ -736,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -753,16 +798,16 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -780,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.0</v>
+        <v>21.0</v>
       </c>
       <c r="N7" t="s">
         <v>23</v>
@@ -797,7 +842,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -812,7 +857,7 @@
         <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
         <v>21</v>
@@ -824,7 +869,7 @@
         <v>2</v>
       </c>
       <c r="M8">
-        <v>8.0</v>
+        <v>25.0</v>
       </c>
       <c r="N8" t="s">
         <v>23</v>
@@ -868,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="M9">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="N9" t="s">
         <v>23</v>
@@ -900,7 +945,7 @@
         <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s">
         <v>21</v>
@@ -912,7 +957,7 @@
         <v>2</v>
       </c>
       <c r="M10">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="N10" t="s">
         <v>23</v>
@@ -929,7 +974,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -973,22 +1018,22 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H12" t="s">
         <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
         <v>21</v>
@@ -1000,7 +1045,7 @@
         <v>2</v>
       </c>
       <c r="M12">
-        <v>22.5</v>
+        <v>10.0</v>
       </c>
       <c r="N12" t="s">
         <v>23</v>
@@ -1023,10 +1068,10 @@
         <v>18</v>
       </c>
       <c r="F13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
@@ -1044,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="M13">
-        <v>25.0</v>
+        <v>6.0</v>
       </c>
       <c r="N13" t="s">
         <v>23</v>
@@ -1061,22 +1106,22 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H14" t="s">
         <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J14" t="s">
         <v>21</v>
@@ -1085,10 +1130,10 @@
         <v>22</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>9.0</v>
+        <v>22.0</v>
       </c>
       <c r="N14" t="s">
         <v>23</v>
@@ -1105,7 +1150,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -1120,7 +1165,7 @@
         <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J15" t="s">
         <v>21</v>
@@ -1129,10 +1174,10 @@
         <v>22</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>12.0</v>
+        <v>7.5</v>
       </c>
       <c r="N15" t="s">
         <v>23</v>
@@ -1149,7 +1194,7 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -1164,7 +1209,7 @@
         <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
         <v>21</v>
@@ -1173,10 +1218,10 @@
         <v>22</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>19.5</v>
+        <v>22.0</v>
       </c>
       <c r="N16" t="s">
         <v>23</v>
@@ -1193,7 +1238,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -1208,7 +1253,7 @@
         <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J17" t="s">
         <v>21</v>
@@ -1217,10 +1262,10 @@
         <v>22</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="N17" t="s">
         <v>23</v>
@@ -1237,7 +1282,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -1252,7 +1297,7 @@
         <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s">
         <v>21</v>
@@ -1261,10 +1306,10 @@
         <v>22</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="N18" t="s">
         <v>23</v>
@@ -1281,22 +1326,22 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H19" t="s">
         <v>19</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
         <v>21</v>
@@ -1305,10 +1350,10 @@
         <v>22</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="N19" t="s">
         <v>23</v>
@@ -1325,34 +1370,34 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20">
         <v>3</v>
       </c>
-      <c r="H20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20">
-        <v>4</v>
-      </c>
       <c r="M20">
-        <v>10.0</v>
+        <v>23.0</v>
       </c>
       <c r="N20" t="s">
         <v>23</v>
@@ -1369,22 +1414,22 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
       </c>
       <c r="F21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H21" t="s">
         <v>19</v>
       </c>
       <c r="I21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J21" t="s">
         <v>21</v>
@@ -1393,10 +1438,10 @@
         <v>22</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
       <c r="N21" t="s">
         <v>23</v>
@@ -1413,22 +1458,22 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
       </c>
       <c r="F22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H22" t="s">
         <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J22" t="s">
         <v>21</v>
@@ -1437,10 +1482,10 @@
         <v>22</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="N22" t="s">
         <v>23</v>
@@ -1457,34 +1502,34 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23">
         <v>3</v>
       </c>
-      <c r="H23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23">
-        <v>4</v>
-      </c>
       <c r="M23">
-        <v>9.0</v>
+        <v>24.0</v>
       </c>
       <c r="N23" t="s">
         <v>23</v>
@@ -1516,7 +1561,7 @@
         <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J24" t="s">
         <v>21</v>
@@ -1525,10 +1570,10 @@
         <v>22</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="N24" t="s">
         <v>23</v>
@@ -1545,7 +1590,7 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
@@ -1560,7 +1605,7 @@
         <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J25" t="s">
         <v>21</v>
@@ -1569,10 +1614,10 @@
         <v>22</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="N25" t="s">
         <v>23</v>
@@ -1589,7 +1634,7 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
@@ -1604,22 +1649,22 @@
         <v>19</v>
       </c>
       <c r="I26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>0.0</v>
+      </c>
+      <c r="N26" t="s">
         <v>33</v>
-      </c>
-      <c r="J26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26">
-        <v>6</v>
-      </c>
-      <c r="M26">
-        <v>24.0</v>
-      </c>
-      <c r="N26" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1633,22 +1678,22 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
         <v>18</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H27" t="s">
         <v>19</v>
       </c>
       <c r="I27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J27" t="s">
         <v>21</v>
@@ -1657,10 +1702,10 @@
         <v>22</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>9.0</v>
+        <v>25.0</v>
       </c>
       <c r="N27" t="s">
         <v>23</v>
@@ -1677,37 +1722,37 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
         <v>18</v>
       </c>
       <c r="F28">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H28" t="s">
         <v>19</v>
       </c>
       <c r="I28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>0.0</v>
+      </c>
+      <c r="N28" t="s">
         <v>33</v>
-      </c>
-      <c r="J28" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28">
-        <v>6</v>
-      </c>
-      <c r="M28">
-        <v>16.0</v>
-      </c>
-      <c r="N28" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1736,7 +1781,7 @@
         <v>19</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J29" t="s">
         <v>21</v>
@@ -1745,10 +1790,10 @@
         <v>22</v>
       </c>
       <c r="L29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="N29" t="s">
         <v>23</v>
@@ -1765,37 +1810,37 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
         <v>18</v>
       </c>
       <c r="F30">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H30" t="s">
         <v>19</v>
       </c>
       <c r="I30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>0.0</v>
+      </c>
+      <c r="N30" t="s">
         <v>33</v>
-      </c>
-      <c r="J30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30">
-        <v>6</v>
-      </c>
-      <c r="M30">
-        <v>13.0</v>
-      </c>
-      <c r="N30" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1809,22 +1854,22 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
         <v>18</v>
       </c>
       <c r="F31">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G31">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H31" t="s">
         <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J31" t="s">
         <v>21</v>
@@ -1833,10 +1878,10 @@
         <v>22</v>
       </c>
       <c r="L31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>7.5</v>
+        <v>10.0</v>
       </c>
       <c r="N31" t="s">
         <v>23</v>
@@ -1853,7 +1898,7 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
@@ -1868,7 +1913,7 @@
         <v>19</v>
       </c>
       <c r="I32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J32" t="s">
         <v>21</v>
@@ -1877,13 +1922,13 @@
         <v>22</v>
       </c>
       <c r="L32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="N32" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1897,16 +1942,16 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
         <v>18</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H33" t="s">
         <v>19</v>
@@ -1921,10 +1966,10 @@
         <v>22</v>
       </c>
       <c r="L33">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M33">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="N33" t="s">
         <v>23</v>
@@ -1941,22 +1986,22 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E34" t="s">
         <v>18</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H34" t="s">
         <v>19</v>
       </c>
       <c r="I34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J34" t="s">
         <v>21</v>
@@ -1965,13 +2010,13 @@
         <v>22</v>
       </c>
       <c r="L34">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M34">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="N34" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1985,7 +2030,7 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E35" t="s">
         <v>18</v>
@@ -2009,10 +2054,10 @@
         <v>22</v>
       </c>
       <c r="L35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M35">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="N35" t="s">
         <v>23</v>
@@ -2029,7 +2074,7 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s">
         <v>18</v>
@@ -2044,7 +2089,7 @@
         <v>19</v>
       </c>
       <c r="I36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J36" t="s">
         <v>21</v>
@@ -2053,13 +2098,13 @@
         <v>22</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M36">
-        <v>23.5</v>
+        <v>0.0</v>
       </c>
       <c r="N36" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2073,7 +2118,7 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
         <v>18</v>
@@ -2097,10 +2142,10 @@
         <v>22</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M37">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
       <c r="N37" t="s">
         <v>23</v>
@@ -2117,7 +2162,7 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
         <v>18</v>
@@ -2141,7 +2186,7 @@
         <v>22</v>
       </c>
       <c r="L38">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M38">
         <v>24.0</v>
@@ -2161,16 +2206,16 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s">
         <v>18</v>
       </c>
       <c r="F39">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H39" t="s">
         <v>19</v>
@@ -2185,10 +2230,10 @@
         <v>22</v>
       </c>
       <c r="L39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M39">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="N39" t="s">
         <v>23</v>
@@ -2205,16 +2250,16 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
         <v>18</v>
       </c>
       <c r="F40">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G40">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H40" t="s">
         <v>19</v>
@@ -2229,10 +2274,10 @@
         <v>22</v>
       </c>
       <c r="L40">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M40">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="N40" t="s">
         <v>23</v>
@@ -2249,16 +2294,16 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E41" t="s">
         <v>18</v>
       </c>
       <c r="F41">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H41" t="s">
         <v>19</v>
@@ -2273,10 +2318,10 @@
         <v>22</v>
       </c>
       <c r="L41">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M41">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="N41" t="s">
         <v>23</v>
@@ -2293,7 +2338,7 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E42" t="s">
         <v>18</v>
@@ -2317,10 +2362,10 @@
         <v>22</v>
       </c>
       <c r="L42">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M42">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="N42" t="s">
         <v>23</v>
@@ -2337,16 +2382,16 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
       </c>
       <c r="F43">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H43" t="s">
         <v>19</v>
@@ -2361,10 +2406,10 @@
         <v>22</v>
       </c>
       <c r="L43">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M43">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="N43" t="s">
         <v>23</v>
@@ -2381,7 +2426,7 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
         <v>18</v>
@@ -2405,13 +2450,13 @@
         <v>22</v>
       </c>
       <c r="L44">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M44">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="N44" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2425,7 +2470,7 @@
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E45" t="s">
         <v>18</v>
@@ -2449,13 +2494,13 @@
         <v>22</v>
       </c>
       <c r="L45">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M45">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="N45" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2469,16 +2514,16 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E46" t="s">
         <v>18</v>
       </c>
       <c r="F46">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G46">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H46" t="s">
         <v>19</v>
@@ -2493,10 +2538,10 @@
         <v>22</v>
       </c>
       <c r="L46">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M46">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="N46" t="s">
         <v>23</v>
@@ -2537,10 +2582,10 @@
         <v>22</v>
       </c>
       <c r="L47">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M47">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="N47" t="s">
         <v>23</v>
@@ -2557,7 +2602,7 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E48" t="s">
         <v>18</v>
@@ -2581,10 +2626,10 @@
         <v>22</v>
       </c>
       <c r="L48">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M48">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="N48" t="s">
         <v>23</v>
@@ -2601,16 +2646,16 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E49" t="s">
         <v>18</v>
       </c>
       <c r="F49">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H49" t="s">
         <v>19</v>
@@ -2625,10 +2670,10 @@
         <v>22</v>
       </c>
       <c r="L49">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M49">
-        <v>4.0</v>
+        <v>18.0</v>
       </c>
       <c r="N49" t="s">
         <v>23</v>
@@ -2645,7 +2690,7 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
         <v>18</v>
@@ -2669,10 +2714,10 @@
         <v>22</v>
       </c>
       <c r="L50">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M50">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="N50" t="s">
         <v>23</v>
@@ -2689,16 +2734,16 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E51" t="s">
         <v>18</v>
       </c>
       <c r="F51">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G51">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H51" t="s">
         <v>19</v>
@@ -2713,10 +2758,10 @@
         <v>22</v>
       </c>
       <c r="L51">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M51">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="N51" t="s">
         <v>23</v>
@@ -2733,7 +2778,7 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E52" t="s">
         <v>18</v>
@@ -2757,10 +2802,10 @@
         <v>22</v>
       </c>
       <c r="L52">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M52">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="N52" t="s">
         <v>23</v>
@@ -2777,7 +2822,7 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E53" t="s">
         <v>18</v>
@@ -2801,7 +2846,7 @@
         <v>22</v>
       </c>
       <c r="L53">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M53">
         <v>19.0</v>
@@ -2821,16 +2866,16 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E54" t="s">
         <v>18</v>
       </c>
       <c r="F54">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H54" t="s">
         <v>19</v>
@@ -2845,10 +2890,10 @@
         <v>22</v>
       </c>
       <c r="L54">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M54">
-        <v>10.0</v>
+        <v>17.5</v>
       </c>
       <c r="N54" t="s">
         <v>23</v>
@@ -2865,7 +2910,7 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E55" t="s">
         <v>18</v>
@@ -2889,10 +2934,10 @@
         <v>22</v>
       </c>
       <c r="L55">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M55">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="N55" t="s">
         <v>23</v>
@@ -2909,7 +2954,7 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
         <v>18</v>
@@ -2933,10 +2978,10 @@
         <v>22</v>
       </c>
       <c r="L56">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M56">
-        <v>7.5</v>
+        <v>21.0</v>
       </c>
       <c r="N56" t="s">
         <v>23</v>
@@ -2977,10 +3022,10 @@
         <v>22</v>
       </c>
       <c r="L57">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M57">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="N57" t="s">
         <v>23</v>
@@ -3003,10 +3048,10 @@
         <v>18</v>
       </c>
       <c r="F58">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G58">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H58" t="s">
         <v>19</v>
@@ -3021,10 +3066,10 @@
         <v>22</v>
       </c>
       <c r="L58">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M58">
-        <v>24.0</v>
+        <v>9.0</v>
       </c>
       <c r="N58" t="s">
         <v>23</v>
@@ -3065,10 +3110,10 @@
         <v>22</v>
       </c>
       <c r="L59">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M59">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="N59" t="s">
         <v>23</v>
@@ -3085,16 +3130,16 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E60" t="s">
         <v>18</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H60" t="s">
         <v>19</v>
@@ -3109,10 +3154,10 @@
         <v>22</v>
       </c>
       <c r="L60">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M60">
-        <v>5.0</v>
+        <v>23.0</v>
       </c>
       <c r="N60" t="s">
         <v>23</v>
@@ -3129,7 +3174,7 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s">
         <v>18</v>
@@ -3153,7 +3198,7 @@
         <v>22</v>
       </c>
       <c r="L61">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M61">
         <v>20.0</v>
@@ -3173,16 +3218,16 @@
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E62" t="s">
         <v>18</v>
       </c>
       <c r="F62">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H62" t="s">
         <v>19</v>
@@ -3197,10 +3242,10 @@
         <v>22</v>
       </c>
       <c r="L62">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M62">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="N62" t="s">
         <v>23</v>
@@ -3217,16 +3262,16 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E63" t="s">
         <v>18</v>
       </c>
       <c r="F63">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G63">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H63" t="s">
         <v>19</v>
@@ -3241,10 +3286,10 @@
         <v>22</v>
       </c>
       <c r="L63">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M63">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="N63" t="s">
         <v>23</v>
@@ -3261,7 +3306,7 @@
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E64" t="s">
         <v>18</v>
@@ -3285,7 +3330,7 @@
         <v>22</v>
       </c>
       <c r="L64">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M64">
         <v>10.0</v>
@@ -3305,7 +3350,7 @@
         <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E65" t="s">
         <v>18</v>
@@ -3329,10 +3374,10 @@
         <v>22</v>
       </c>
       <c r="L65">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M65">
-        <v>25.0</v>
+        <v>16.5</v>
       </c>
       <c r="N65" t="s">
         <v>23</v>
@@ -3349,7 +3394,7 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E66" t="s">
         <v>18</v>
@@ -3373,10 +3418,10 @@
         <v>22</v>
       </c>
       <c r="L66">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M66">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="N66" t="s">
         <v>23</v>
@@ -3393,7 +3438,7 @@
         <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E67" t="s">
         <v>18</v>
@@ -3417,12 +3462,3972 @@
         <v>22</v>
       </c>
       <c r="L67">
+        <v>10</v>
+      </c>
+      <c r="M67">
+        <v>19.0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68">
+        <v>25</v>
+      </c>
+      <c r="G68">
+        <v>7</v>
+      </c>
+      <c r="H68" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s">
+        <v>40</v>
+      </c>
+      <c r="J68" t="s">
+        <v>21</v>
+      </c>
+      <c r="K68" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68">
+        <v>11</v>
+      </c>
+      <c r="M68">
+        <v>15.0</v>
+      </c>
+      <c r="N68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" t="s">
+        <v>40</v>
+      </c>
+      <c r="J69" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" t="s">
+        <v>22</v>
+      </c>
+      <c r="L69">
+        <v>11</v>
+      </c>
+      <c r="M69">
+        <v>8.0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" t="s">
+        <v>40</v>
+      </c>
+      <c r="J70" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70">
+        <v>11</v>
+      </c>
+      <c r="M70">
+        <v>5.0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71">
+        <v>25</v>
+      </c>
+      <c r="G71">
+        <v>7</v>
+      </c>
+      <c r="H71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" t="s">
+        <v>40</v>
+      </c>
+      <c r="J71" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71">
+        <v>11</v>
+      </c>
+      <c r="M71">
+        <v>14.0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72">
+        <v>25</v>
+      </c>
+      <c r="G72">
+        <v>7</v>
+      </c>
+      <c r="H72" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s">
+        <v>40</v>
+      </c>
+      <c r="J72" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" t="s">
+        <v>22</v>
+      </c>
+      <c r="L72">
+        <v>11</v>
+      </c>
+      <c r="M72">
+        <v>18.0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73">
+        <v>25</v>
+      </c>
+      <c r="G73">
+        <v>7</v>
+      </c>
+      <c r="H73" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" t="s">
+        <v>40</v>
+      </c>
+      <c r="J73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L73">
+        <v>11</v>
+      </c>
+      <c r="M73">
+        <v>9.0</v>
+      </c>
+      <c r="N73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74">
+        <v>25</v>
+      </c>
+      <c r="G74">
+        <v>7</v>
+      </c>
+      <c r="H74" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s">
+        <v>41</v>
+      </c>
+      <c r="J74" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" t="s">
+        <v>22</v>
+      </c>
+      <c r="L74">
         <v>12</v>
       </c>
-      <c r="M67">
+      <c r="M74">
+        <v>17.0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" t="s">
+        <v>41</v>
+      </c>
+      <c r="J75" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75">
+        <v>12</v>
+      </c>
+      <c r="M75">
+        <v>8.0</v>
+      </c>
+      <c r="N75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" t="s">
+        <v>41</v>
+      </c>
+      <c r="J76" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76">
+        <v>12</v>
+      </c>
+      <c r="M76">
+        <v>10.0</v>
+      </c>
+      <c r="N76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77">
+        <v>25</v>
+      </c>
+      <c r="G77">
+        <v>7</v>
+      </c>
+      <c r="H77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" t="s">
+        <v>41</v>
+      </c>
+      <c r="J77" t="s">
+        <v>21</v>
+      </c>
+      <c r="K77" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77">
+        <v>12</v>
+      </c>
+      <c r="M77">
+        <v>10.5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78">
+        <v>25</v>
+      </c>
+      <c r="G78">
+        <v>7</v>
+      </c>
+      <c r="H78" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" t="s">
+        <v>41</v>
+      </c>
+      <c r="J78" t="s">
+        <v>21</v>
+      </c>
+      <c r="K78" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78">
+        <v>12</v>
+      </c>
+      <c r="M78">
         <v>23.0</v>
       </c>
-      <c r="N67" t="s">
+      <c r="N78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79">
+        <v>25</v>
+      </c>
+      <c r="G79">
+        <v>7</v>
+      </c>
+      <c r="H79" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" t="s">
+        <v>41</v>
+      </c>
+      <c r="J79" t="s">
+        <v>21</v>
+      </c>
+      <c r="K79" t="s">
+        <v>22</v>
+      </c>
+      <c r="L79">
+        <v>12</v>
+      </c>
+      <c r="M79">
+        <v>16.0</v>
+      </c>
+      <c r="N79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80">
+        <v>25</v>
+      </c>
+      <c r="G80">
+        <v>7</v>
+      </c>
+      <c r="H80" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" t="s">
+        <v>42</v>
+      </c>
+      <c r="J80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80" t="s">
+        <v>22</v>
+      </c>
+      <c r="L80">
+        <v>13</v>
+      </c>
+      <c r="M80">
+        <v>24.0</v>
+      </c>
+      <c r="N80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+      <c r="H81" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" t="s">
+        <v>42</v>
+      </c>
+      <c r="J81" t="s">
+        <v>21</v>
+      </c>
+      <c r="K81" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81">
+        <v>13</v>
+      </c>
+      <c r="M81">
+        <v>10.0</v>
+      </c>
+      <c r="N81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" t="s">
+        <v>42</v>
+      </c>
+      <c r="J82" t="s">
+        <v>21</v>
+      </c>
+      <c r="K82" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82">
+        <v>13</v>
+      </c>
+      <c r="M82">
+        <v>10.0</v>
+      </c>
+      <c r="N82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83">
+        <v>25</v>
+      </c>
+      <c r="G83">
+        <v>7</v>
+      </c>
+      <c r="H83" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s">
+        <v>42</v>
+      </c>
+      <c r="J83" t="s">
+        <v>21</v>
+      </c>
+      <c r="K83" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83">
+        <v>13</v>
+      </c>
+      <c r="M83">
+        <v>23.0</v>
+      </c>
+      <c r="N83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84">
+        <v>25</v>
+      </c>
+      <c r="G84">
+        <v>7</v>
+      </c>
+      <c r="H84" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" t="s">
+        <v>42</v>
+      </c>
+      <c r="J84" t="s">
+        <v>21</v>
+      </c>
+      <c r="K84" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84">
+        <v>13</v>
+      </c>
+      <c r="M84">
+        <v>25.0</v>
+      </c>
+      <c r="N84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85">
+        <v>25</v>
+      </c>
+      <c r="G85">
+        <v>7</v>
+      </c>
+      <c r="H85" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" t="s">
+        <v>42</v>
+      </c>
+      <c r="J85" t="s">
+        <v>21</v>
+      </c>
+      <c r="K85" t="s">
+        <v>22</v>
+      </c>
+      <c r="L85">
+        <v>13</v>
+      </c>
+      <c r="M85">
+        <v>19.0</v>
+      </c>
+      <c r="N85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86">
+        <v>25</v>
+      </c>
+      <c r="G86">
+        <v>7</v>
+      </c>
+      <c r="H86" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" t="s">
+        <v>43</v>
+      </c>
+      <c r="J86" t="s">
+        <v>21</v>
+      </c>
+      <c r="K86" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86">
+        <v>15</v>
+      </c>
+      <c r="M86">
+        <v>0.0</v>
+      </c>
+      <c r="N86" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" t="s">
+        <v>43</v>
+      </c>
+      <c r="J87" t="s">
+        <v>21</v>
+      </c>
+      <c r="K87" t="s">
+        <v>22</v>
+      </c>
+      <c r="L87">
+        <v>15</v>
+      </c>
+      <c r="M87">
+        <v>0.0</v>
+      </c>
+      <c r="N87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" t="s">
+        <v>43</v>
+      </c>
+      <c r="J88" t="s">
+        <v>21</v>
+      </c>
+      <c r="K88" t="s">
+        <v>22</v>
+      </c>
+      <c r="L88">
+        <v>15</v>
+      </c>
+      <c r="M88">
+        <v>0.0</v>
+      </c>
+      <c r="N88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89">
+        <v>25</v>
+      </c>
+      <c r="G89">
+        <v>7</v>
+      </c>
+      <c r="H89" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" t="s">
+        <v>43</v>
+      </c>
+      <c r="J89" t="s">
+        <v>21</v>
+      </c>
+      <c r="K89" t="s">
+        <v>22</v>
+      </c>
+      <c r="L89">
+        <v>15</v>
+      </c>
+      <c r="M89">
+        <v>0.0</v>
+      </c>
+      <c r="N89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90">
+        <v>25</v>
+      </c>
+      <c r="G90">
+        <v>7</v>
+      </c>
+      <c r="H90" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" t="s">
+        <v>43</v>
+      </c>
+      <c r="J90" t="s">
+        <v>21</v>
+      </c>
+      <c r="K90" t="s">
+        <v>22</v>
+      </c>
+      <c r="L90">
+        <v>15</v>
+      </c>
+      <c r="M90">
+        <v>0.0</v>
+      </c>
+      <c r="N90" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91">
+        <v>25</v>
+      </c>
+      <c r="G91">
+        <v>7</v>
+      </c>
+      <c r="H91" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" t="s">
+        <v>43</v>
+      </c>
+      <c r="J91" t="s">
+        <v>21</v>
+      </c>
+      <c r="K91" t="s">
+        <v>22</v>
+      </c>
+      <c r="L91">
+        <v>15</v>
+      </c>
+      <c r="M91">
+        <v>0.0</v>
+      </c>
+      <c r="N91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92">
+        <v>25</v>
+      </c>
+      <c r="G92">
+        <v>7</v>
+      </c>
+      <c r="H92" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" t="s">
+        <v>44</v>
+      </c>
+      <c r="J92" t="s">
+        <v>21</v>
+      </c>
+      <c r="K92" t="s">
+        <v>22</v>
+      </c>
+      <c r="L92">
+        <v>16</v>
+      </c>
+      <c r="M92">
+        <v>25.0</v>
+      </c>
+      <c r="N92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+      <c r="H93" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" t="s">
+        <v>44</v>
+      </c>
+      <c r="J93" t="s">
+        <v>21</v>
+      </c>
+      <c r="K93" t="s">
+        <v>22</v>
+      </c>
+      <c r="L93">
+        <v>16</v>
+      </c>
+      <c r="M93">
+        <v>10.0</v>
+      </c>
+      <c r="N93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" t="s">
+        <v>44</v>
+      </c>
+      <c r="J94" t="s">
+        <v>21</v>
+      </c>
+      <c r="K94" t="s">
+        <v>22</v>
+      </c>
+      <c r="L94">
+        <v>16</v>
+      </c>
+      <c r="M94">
+        <v>10.0</v>
+      </c>
+      <c r="N94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95">
+        <v>25</v>
+      </c>
+      <c r="G95">
+        <v>7</v>
+      </c>
+      <c r="H95" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" t="s">
+        <v>44</v>
+      </c>
+      <c r="J95" t="s">
+        <v>21</v>
+      </c>
+      <c r="K95" t="s">
+        <v>22</v>
+      </c>
+      <c r="L95">
+        <v>16</v>
+      </c>
+      <c r="M95">
+        <v>21.0</v>
+      </c>
+      <c r="N95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96">
+        <v>25</v>
+      </c>
+      <c r="G96">
+        <v>7</v>
+      </c>
+      <c r="H96" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" t="s">
+        <v>44</v>
+      </c>
+      <c r="J96" t="s">
+        <v>21</v>
+      </c>
+      <c r="K96" t="s">
+        <v>22</v>
+      </c>
+      <c r="L96">
+        <v>16</v>
+      </c>
+      <c r="M96">
+        <v>25.0</v>
+      </c>
+      <c r="N96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97">
+        <v>25</v>
+      </c>
+      <c r="G97">
+        <v>7</v>
+      </c>
+      <c r="H97" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" t="s">
+        <v>44</v>
+      </c>
+      <c r="J97" t="s">
+        <v>21</v>
+      </c>
+      <c r="K97" t="s">
+        <v>22</v>
+      </c>
+      <c r="L97">
+        <v>16</v>
+      </c>
+      <c r="M97">
+        <v>20.0</v>
+      </c>
+      <c r="N97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98">
+        <v>25</v>
+      </c>
+      <c r="G98">
+        <v>7</v>
+      </c>
+      <c r="H98" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" t="s">
+        <v>45</v>
+      </c>
+      <c r="J98" t="s">
+        <v>21</v>
+      </c>
+      <c r="K98" t="s">
+        <v>22</v>
+      </c>
+      <c r="L98">
+        <v>17</v>
+      </c>
+      <c r="M98">
+        <v>18.0</v>
+      </c>
+      <c r="N98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" t="s">
+        <v>45</v>
+      </c>
+      <c r="J99" t="s">
+        <v>21</v>
+      </c>
+      <c r="K99" t="s">
+        <v>22</v>
+      </c>
+      <c r="L99">
+        <v>17</v>
+      </c>
+      <c r="M99">
+        <v>9.0</v>
+      </c>
+      <c r="N99" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" t="s">
+        <v>45</v>
+      </c>
+      <c r="J100" t="s">
+        <v>21</v>
+      </c>
+      <c r="K100" t="s">
+        <v>22</v>
+      </c>
+      <c r="L100">
+        <v>17</v>
+      </c>
+      <c r="M100">
+        <v>7.0</v>
+      </c>
+      <c r="N100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101">
+        <v>25</v>
+      </c>
+      <c r="G101">
+        <v>7</v>
+      </c>
+      <c r="H101" t="s">
+        <v>19</v>
+      </c>
+      <c r="I101" t="s">
+        <v>45</v>
+      </c>
+      <c r="J101" t="s">
+        <v>21</v>
+      </c>
+      <c r="K101" t="s">
+        <v>22</v>
+      </c>
+      <c r="L101">
+        <v>17</v>
+      </c>
+      <c r="M101">
+        <v>19.0</v>
+      </c>
+      <c r="N101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102">
+        <v>25</v>
+      </c>
+      <c r="G102">
+        <v>7</v>
+      </c>
+      <c r="H102" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" t="s">
+        <v>45</v>
+      </c>
+      <c r="J102" t="s">
+        <v>21</v>
+      </c>
+      <c r="K102" t="s">
+        <v>22</v>
+      </c>
+      <c r="L102">
+        <v>17</v>
+      </c>
+      <c r="M102">
+        <v>20.0</v>
+      </c>
+      <c r="N102" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103">
+        <v>25</v>
+      </c>
+      <c r="G103">
+        <v>7</v>
+      </c>
+      <c r="H103" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" t="s">
+        <v>45</v>
+      </c>
+      <c r="J103" t="s">
+        <v>21</v>
+      </c>
+      <c r="K103" t="s">
+        <v>22</v>
+      </c>
+      <c r="L103">
+        <v>17</v>
+      </c>
+      <c r="M103">
+        <v>18.0</v>
+      </c>
+      <c r="N103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104">
+        <v>25</v>
+      </c>
+      <c r="G104">
+        <v>7</v>
+      </c>
+      <c r="H104" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" t="s">
+        <v>46</v>
+      </c>
+      <c r="J104" t="s">
+        <v>21</v>
+      </c>
+      <c r="K104" t="s">
+        <v>22</v>
+      </c>
+      <c r="L104">
+        <v>18</v>
+      </c>
+      <c r="M104">
+        <v>24.0</v>
+      </c>
+      <c r="N104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+      <c r="H105" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" t="s">
+        <v>46</v>
+      </c>
+      <c r="J105" t="s">
+        <v>21</v>
+      </c>
+      <c r="K105" t="s">
+        <v>22</v>
+      </c>
+      <c r="L105">
+        <v>18</v>
+      </c>
+      <c r="M105">
+        <v>9.0</v>
+      </c>
+      <c r="N105" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
+      </c>
+      <c r="H106" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" t="s">
+        <v>46</v>
+      </c>
+      <c r="J106" t="s">
+        <v>21</v>
+      </c>
+      <c r="K106" t="s">
+        <v>22</v>
+      </c>
+      <c r="L106">
+        <v>18</v>
+      </c>
+      <c r="M106">
+        <v>6.0</v>
+      </c>
+      <c r="N106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107">
+        <v>25</v>
+      </c>
+      <c r="G107">
+        <v>7</v>
+      </c>
+      <c r="H107" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" t="s">
+        <v>46</v>
+      </c>
+      <c r="J107" t="s">
+        <v>21</v>
+      </c>
+      <c r="K107" t="s">
+        <v>22</v>
+      </c>
+      <c r="L107">
+        <v>18</v>
+      </c>
+      <c r="M107">
+        <v>18.0</v>
+      </c>
+      <c r="N107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>27</v>
+      </c>
+      <c r="E108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108">
+        <v>25</v>
+      </c>
+      <c r="G108">
+        <v>7</v>
+      </c>
+      <c r="H108" t="s">
+        <v>19</v>
+      </c>
+      <c r="I108" t="s">
+        <v>46</v>
+      </c>
+      <c r="J108" t="s">
+        <v>21</v>
+      </c>
+      <c r="K108" t="s">
+        <v>22</v>
+      </c>
+      <c r="L108">
+        <v>18</v>
+      </c>
+      <c r="M108">
+        <v>22.0</v>
+      </c>
+      <c r="N108" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109">
+        <v>25</v>
+      </c>
+      <c r="G109">
+        <v>7</v>
+      </c>
+      <c r="H109" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" t="s">
+        <v>46</v>
+      </c>
+      <c r="J109" t="s">
+        <v>21</v>
+      </c>
+      <c r="K109" t="s">
+        <v>22</v>
+      </c>
+      <c r="L109">
+        <v>18</v>
+      </c>
+      <c r="M109">
+        <v>18.0</v>
+      </c>
+      <c r="N109" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110">
+        <v>25</v>
+      </c>
+      <c r="G110">
+        <v>7</v>
+      </c>
+      <c r="H110" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110" t="s">
+        <v>47</v>
+      </c>
+      <c r="J110" t="s">
+        <v>21</v>
+      </c>
+      <c r="K110" t="s">
+        <v>22</v>
+      </c>
+      <c r="L110">
+        <v>19</v>
+      </c>
+      <c r="M110">
+        <v>25.0</v>
+      </c>
+      <c r="N110" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111">
+        <v>10</v>
+      </c>
+      <c r="G111">
+        <v>3</v>
+      </c>
+      <c r="H111" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" t="s">
+        <v>47</v>
+      </c>
+      <c r="J111" t="s">
+        <v>21</v>
+      </c>
+      <c r="K111" t="s">
+        <v>22</v>
+      </c>
+      <c r="L111">
+        <v>19</v>
+      </c>
+      <c r="M111">
+        <v>10.0</v>
+      </c>
+      <c r="N111" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112">
+        <v>10</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="H112" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" t="s">
+        <v>47</v>
+      </c>
+      <c r="J112" t="s">
+        <v>21</v>
+      </c>
+      <c r="K112" t="s">
+        <v>22</v>
+      </c>
+      <c r="L112">
+        <v>19</v>
+      </c>
+      <c r="M112">
+        <v>9.0</v>
+      </c>
+      <c r="N112" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113">
+        <v>25</v>
+      </c>
+      <c r="G113">
+        <v>7</v>
+      </c>
+      <c r="H113" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" t="s">
+        <v>47</v>
+      </c>
+      <c r="J113" t="s">
+        <v>21</v>
+      </c>
+      <c r="K113" t="s">
+        <v>22</v>
+      </c>
+      <c r="L113">
+        <v>19</v>
+      </c>
+      <c r="M113">
+        <v>20.5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114">
+        <v>25</v>
+      </c>
+      <c r="G114">
+        <v>7</v>
+      </c>
+      <c r="H114" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114" t="s">
+        <v>47</v>
+      </c>
+      <c r="J114" t="s">
+        <v>21</v>
+      </c>
+      <c r="K114" t="s">
+        <v>22</v>
+      </c>
+      <c r="L114">
+        <v>19</v>
+      </c>
+      <c r="M114">
+        <v>19.0</v>
+      </c>
+      <c r="N114" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115">
+        <v>25</v>
+      </c>
+      <c r="G115">
+        <v>7</v>
+      </c>
+      <c r="H115" t="s">
+        <v>19</v>
+      </c>
+      <c r="I115" t="s">
+        <v>47</v>
+      </c>
+      <c r="J115" t="s">
+        <v>21</v>
+      </c>
+      <c r="K115" t="s">
+        <v>22</v>
+      </c>
+      <c r="L115">
+        <v>19</v>
+      </c>
+      <c r="M115">
+        <v>20.0</v>
+      </c>
+      <c r="N115" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116">
+        <v>25</v>
+      </c>
+      <c r="G116">
+        <v>7</v>
+      </c>
+      <c r="H116" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" t="s">
+        <v>48</v>
+      </c>
+      <c r="J116" t="s">
+        <v>21</v>
+      </c>
+      <c r="K116" t="s">
+        <v>22</v>
+      </c>
+      <c r="L116">
+        <v>20</v>
+      </c>
+      <c r="M116">
+        <v>24.0</v>
+      </c>
+      <c r="N116" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117">
+        <v>10</v>
+      </c>
+      <c r="G117">
+        <v>3</v>
+      </c>
+      <c r="H117" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" t="s">
+        <v>48</v>
+      </c>
+      <c r="J117" t="s">
+        <v>21</v>
+      </c>
+      <c r="K117" t="s">
+        <v>22</v>
+      </c>
+      <c r="L117">
+        <v>20</v>
+      </c>
+      <c r="M117">
+        <v>9.0</v>
+      </c>
+      <c r="N117" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+      <c r="H118" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" t="s">
+        <v>48</v>
+      </c>
+      <c r="J118" t="s">
+        <v>21</v>
+      </c>
+      <c r="K118" t="s">
+        <v>22</v>
+      </c>
+      <c r="L118">
+        <v>20</v>
+      </c>
+      <c r="M118">
+        <v>10.0</v>
+      </c>
+      <c r="N118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119">
+        <v>25</v>
+      </c>
+      <c r="G119">
+        <v>7</v>
+      </c>
+      <c r="H119" t="s">
+        <v>19</v>
+      </c>
+      <c r="I119" t="s">
+        <v>48</v>
+      </c>
+      <c r="J119" t="s">
+        <v>21</v>
+      </c>
+      <c r="K119" t="s">
+        <v>22</v>
+      </c>
+      <c r="L119">
+        <v>20</v>
+      </c>
+      <c r="M119">
+        <v>19.0</v>
+      </c>
+      <c r="N119" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120">
+        <v>25</v>
+      </c>
+      <c r="G120">
+        <v>7</v>
+      </c>
+      <c r="H120" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" t="s">
+        <v>48</v>
+      </c>
+      <c r="J120" t="s">
+        <v>21</v>
+      </c>
+      <c r="K120" t="s">
+        <v>22</v>
+      </c>
+      <c r="L120">
+        <v>20</v>
+      </c>
+      <c r="M120">
+        <v>22.0</v>
+      </c>
+      <c r="N120" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" t="s">
+        <v>18</v>
+      </c>
+      <c r="F121">
+        <v>25</v>
+      </c>
+      <c r="G121">
+        <v>7</v>
+      </c>
+      <c r="H121" t="s">
+        <v>19</v>
+      </c>
+      <c r="I121" t="s">
+        <v>48</v>
+      </c>
+      <c r="J121" t="s">
+        <v>21</v>
+      </c>
+      <c r="K121" t="s">
+        <v>22</v>
+      </c>
+      <c r="L121">
+        <v>20</v>
+      </c>
+      <c r="M121">
+        <v>18.0</v>
+      </c>
+      <c r="N121" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122">
+        <v>25</v>
+      </c>
+      <c r="G122">
+        <v>7</v>
+      </c>
+      <c r="H122" t="s">
+        <v>19</v>
+      </c>
+      <c r="I122" t="s">
+        <v>49</v>
+      </c>
+      <c r="J122" t="s">
+        <v>21</v>
+      </c>
+      <c r="K122" t="s">
+        <v>22</v>
+      </c>
+      <c r="L122">
+        <v>21</v>
+      </c>
+      <c r="M122">
+        <v>23.0</v>
+      </c>
+      <c r="N122" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123">
+        <v>10</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+      <c r="H123" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" t="s">
+        <v>49</v>
+      </c>
+      <c r="J123" t="s">
+        <v>21</v>
+      </c>
+      <c r="K123" t="s">
+        <v>22</v>
+      </c>
+      <c r="L123">
+        <v>21</v>
+      </c>
+      <c r="M123">
+        <v>9.0</v>
+      </c>
+      <c r="N123" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124">
+        <v>10</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+      <c r="H124" t="s">
+        <v>19</v>
+      </c>
+      <c r="I124" t="s">
+        <v>49</v>
+      </c>
+      <c r="J124" t="s">
+        <v>21</v>
+      </c>
+      <c r="K124" t="s">
+        <v>22</v>
+      </c>
+      <c r="L124">
+        <v>21</v>
+      </c>
+      <c r="M124">
+        <v>10.0</v>
+      </c>
+      <c r="N124" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125">
+        <v>25</v>
+      </c>
+      <c r="G125">
+        <v>7</v>
+      </c>
+      <c r="H125" t="s">
+        <v>19</v>
+      </c>
+      <c r="I125" t="s">
+        <v>49</v>
+      </c>
+      <c r="J125" t="s">
+        <v>21</v>
+      </c>
+      <c r="K125" t="s">
+        <v>22</v>
+      </c>
+      <c r="L125">
+        <v>21</v>
+      </c>
+      <c r="M125">
+        <v>20.0</v>
+      </c>
+      <c r="N125" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>27</v>
+      </c>
+      <c r="E126" t="s">
+        <v>18</v>
+      </c>
+      <c r="F126">
+        <v>25</v>
+      </c>
+      <c r="G126">
+        <v>7</v>
+      </c>
+      <c r="H126" t="s">
+        <v>19</v>
+      </c>
+      <c r="I126" t="s">
+        <v>49</v>
+      </c>
+      <c r="J126" t="s">
+        <v>21</v>
+      </c>
+      <c r="K126" t="s">
+        <v>22</v>
+      </c>
+      <c r="L126">
+        <v>21</v>
+      </c>
+      <c r="M126">
+        <v>23.0</v>
+      </c>
+      <c r="N126" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127">
+        <v>25</v>
+      </c>
+      <c r="G127">
+        <v>7</v>
+      </c>
+      <c r="H127" t="s">
+        <v>19</v>
+      </c>
+      <c r="I127" t="s">
+        <v>49</v>
+      </c>
+      <c r="J127" t="s">
+        <v>21</v>
+      </c>
+      <c r="K127" t="s">
+        <v>22</v>
+      </c>
+      <c r="L127">
+        <v>21</v>
+      </c>
+      <c r="M127">
+        <v>19.0</v>
+      </c>
+      <c r="N127" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128">
+        <v>25</v>
+      </c>
+      <c r="G128">
+        <v>7</v>
+      </c>
+      <c r="H128" t="s">
+        <v>19</v>
+      </c>
+      <c r="I128" t="s">
+        <v>50</v>
+      </c>
+      <c r="J128" t="s">
+        <v>21</v>
+      </c>
+      <c r="K128" t="s">
+        <v>22</v>
+      </c>
+      <c r="L128">
+        <v>22</v>
+      </c>
+      <c r="M128">
+        <v>25.0</v>
+      </c>
+      <c r="N128" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>24</v>
+      </c>
+      <c r="E129" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129">
+        <v>10</v>
+      </c>
+      <c r="G129">
+        <v>3</v>
+      </c>
+      <c r="H129" t="s">
+        <v>19</v>
+      </c>
+      <c r="I129" t="s">
+        <v>50</v>
+      </c>
+      <c r="J129" t="s">
+        <v>21</v>
+      </c>
+      <c r="K129" t="s">
+        <v>22</v>
+      </c>
+      <c r="L129">
+        <v>22</v>
+      </c>
+      <c r="M129">
+        <v>8.0</v>
+      </c>
+      <c r="N129" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130">
+        <v>10</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+      <c r="H130" t="s">
+        <v>19</v>
+      </c>
+      <c r="I130" t="s">
+        <v>50</v>
+      </c>
+      <c r="J130" t="s">
+        <v>21</v>
+      </c>
+      <c r="K130" t="s">
+        <v>22</v>
+      </c>
+      <c r="L130">
+        <v>22</v>
+      </c>
+      <c r="M130">
+        <v>9.0</v>
+      </c>
+      <c r="N130" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131" t="s">
+        <v>18</v>
+      </c>
+      <c r="F131">
+        <v>25</v>
+      </c>
+      <c r="G131">
+        <v>7</v>
+      </c>
+      <c r="H131" t="s">
+        <v>19</v>
+      </c>
+      <c r="I131" t="s">
+        <v>50</v>
+      </c>
+      <c r="J131" t="s">
+        <v>21</v>
+      </c>
+      <c r="K131" t="s">
+        <v>22</v>
+      </c>
+      <c r="L131">
+        <v>22</v>
+      </c>
+      <c r="M131">
+        <v>16.5</v>
+      </c>
+      <c r="N131" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>27</v>
+      </c>
+      <c r="E132" t="s">
+        <v>18</v>
+      </c>
+      <c r="F132">
+        <v>25</v>
+      </c>
+      <c r="G132">
+        <v>7</v>
+      </c>
+      <c r="H132" t="s">
+        <v>19</v>
+      </c>
+      <c r="I132" t="s">
+        <v>50</v>
+      </c>
+      <c r="J132" t="s">
+        <v>21</v>
+      </c>
+      <c r="K132" t="s">
+        <v>22</v>
+      </c>
+      <c r="L132">
+        <v>22</v>
+      </c>
+      <c r="M132">
+        <v>21.0</v>
+      </c>
+      <c r="N132" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" t="s">
+        <v>18</v>
+      </c>
+      <c r="F133">
+        <v>25</v>
+      </c>
+      <c r="G133">
+        <v>7</v>
+      </c>
+      <c r="H133" t="s">
+        <v>19</v>
+      </c>
+      <c r="I133" t="s">
+        <v>50</v>
+      </c>
+      <c r="J133" t="s">
+        <v>21</v>
+      </c>
+      <c r="K133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L133">
+        <v>22</v>
+      </c>
+      <c r="M133">
+        <v>19.0</v>
+      </c>
+      <c r="N133" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134">
+        <v>25</v>
+      </c>
+      <c r="G134">
+        <v>7</v>
+      </c>
+      <c r="H134" t="s">
+        <v>19</v>
+      </c>
+      <c r="I134" t="s">
+        <v>51</v>
+      </c>
+      <c r="J134" t="s">
+        <v>21</v>
+      </c>
+      <c r="K134" t="s">
+        <v>22</v>
+      </c>
+      <c r="L134">
+        <v>23</v>
+      </c>
+      <c r="M134">
+        <v>0.0</v>
+      </c>
+      <c r="N134" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135">
+        <v>10</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+      <c r="H135" t="s">
+        <v>19</v>
+      </c>
+      <c r="I135" t="s">
+        <v>51</v>
+      </c>
+      <c r="J135" t="s">
+        <v>21</v>
+      </c>
+      <c r="K135" t="s">
+        <v>22</v>
+      </c>
+      <c r="L135">
+        <v>23</v>
+      </c>
+      <c r="M135">
+        <v>0.0</v>
+      </c>
+      <c r="N135" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>25</v>
+      </c>
+      <c r="E136" t="s">
+        <v>18</v>
+      </c>
+      <c r="F136">
+        <v>10</v>
+      </c>
+      <c r="G136">
+        <v>3</v>
+      </c>
+      <c r="H136" t="s">
+        <v>19</v>
+      </c>
+      <c r="I136" t="s">
+        <v>51</v>
+      </c>
+      <c r="J136" t="s">
+        <v>21</v>
+      </c>
+      <c r="K136" t="s">
+        <v>22</v>
+      </c>
+      <c r="L136">
+        <v>23</v>
+      </c>
+      <c r="M136">
+        <v>0.0</v>
+      </c>
+      <c r="N136" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>26</v>
+      </c>
+      <c r="E137" t="s">
+        <v>18</v>
+      </c>
+      <c r="F137">
+        <v>25</v>
+      </c>
+      <c r="G137">
+        <v>7</v>
+      </c>
+      <c r="H137" t="s">
+        <v>19</v>
+      </c>
+      <c r="I137" t="s">
+        <v>51</v>
+      </c>
+      <c r="J137" t="s">
+        <v>21</v>
+      </c>
+      <c r="K137" t="s">
+        <v>22</v>
+      </c>
+      <c r="L137">
+        <v>23</v>
+      </c>
+      <c r="M137">
+        <v>0.0</v>
+      </c>
+      <c r="N137" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>27</v>
+      </c>
+      <c r="E138" t="s">
+        <v>18</v>
+      </c>
+      <c r="F138">
+        <v>25</v>
+      </c>
+      <c r="G138">
+        <v>7</v>
+      </c>
+      <c r="H138" t="s">
+        <v>19</v>
+      </c>
+      <c r="I138" t="s">
+        <v>51</v>
+      </c>
+      <c r="J138" t="s">
+        <v>21</v>
+      </c>
+      <c r="K138" t="s">
+        <v>22</v>
+      </c>
+      <c r="L138">
+        <v>23</v>
+      </c>
+      <c r="M138">
+        <v>0.0</v>
+      </c>
+      <c r="N138" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139">
+        <v>25</v>
+      </c>
+      <c r="G139">
+        <v>7</v>
+      </c>
+      <c r="H139" t="s">
+        <v>19</v>
+      </c>
+      <c r="I139" t="s">
+        <v>51</v>
+      </c>
+      <c r="J139" t="s">
+        <v>21</v>
+      </c>
+      <c r="K139" t="s">
+        <v>22</v>
+      </c>
+      <c r="L139">
+        <v>23</v>
+      </c>
+      <c r="M139">
+        <v>0.0</v>
+      </c>
+      <c r="N139" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140">
+        <v>25</v>
+      </c>
+      <c r="G140">
+        <v>7</v>
+      </c>
+      <c r="H140" t="s">
+        <v>19</v>
+      </c>
+      <c r="I140" t="s">
+        <v>52</v>
+      </c>
+      <c r="J140" t="s">
+        <v>21</v>
+      </c>
+      <c r="K140" t="s">
+        <v>22</v>
+      </c>
+      <c r="L140">
+        <v>24</v>
+      </c>
+      <c r="M140">
+        <v>11.0</v>
+      </c>
+      <c r="N140" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>24</v>
+      </c>
+      <c r="E141" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141">
+        <v>10</v>
+      </c>
+      <c r="G141">
+        <v>3</v>
+      </c>
+      <c r="H141" t="s">
+        <v>19</v>
+      </c>
+      <c r="I141" t="s">
+        <v>52</v>
+      </c>
+      <c r="J141" t="s">
+        <v>21</v>
+      </c>
+      <c r="K141" t="s">
+        <v>22</v>
+      </c>
+      <c r="L141">
+        <v>24</v>
+      </c>
+      <c r="M141">
+        <v>6.0</v>
+      </c>
+      <c r="N141" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142" t="s">
+        <v>18</v>
+      </c>
+      <c r="F142">
+        <v>10</v>
+      </c>
+      <c r="G142">
+        <v>3</v>
+      </c>
+      <c r="H142" t="s">
+        <v>19</v>
+      </c>
+      <c r="I142" t="s">
+        <v>52</v>
+      </c>
+      <c r="J142" t="s">
+        <v>21</v>
+      </c>
+      <c r="K142" t="s">
+        <v>22</v>
+      </c>
+      <c r="L142">
+        <v>24</v>
+      </c>
+      <c r="M142">
+        <v>9.0</v>
+      </c>
+      <c r="N142" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>26</v>
+      </c>
+      <c r="E143" t="s">
+        <v>18</v>
+      </c>
+      <c r="F143">
+        <v>25</v>
+      </c>
+      <c r="G143">
+        <v>7</v>
+      </c>
+      <c r="H143" t="s">
+        <v>19</v>
+      </c>
+      <c r="I143" t="s">
+        <v>52</v>
+      </c>
+      <c r="J143" t="s">
+        <v>21</v>
+      </c>
+      <c r="K143" t="s">
+        <v>22</v>
+      </c>
+      <c r="L143">
+        <v>24</v>
+      </c>
+      <c r="M143">
+        <v>4.5</v>
+      </c>
+      <c r="N143" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>27</v>
+      </c>
+      <c r="E144" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144">
+        <v>25</v>
+      </c>
+      <c r="G144">
+        <v>7</v>
+      </c>
+      <c r="H144" t="s">
+        <v>19</v>
+      </c>
+      <c r="I144" t="s">
+        <v>52</v>
+      </c>
+      <c r="J144" t="s">
+        <v>21</v>
+      </c>
+      <c r="K144" t="s">
+        <v>22</v>
+      </c>
+      <c r="L144">
+        <v>24</v>
+      </c>
+      <c r="M144">
+        <v>21.0</v>
+      </c>
+      <c r="N144" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" t="s">
+        <v>18</v>
+      </c>
+      <c r="F145">
+        <v>25</v>
+      </c>
+      <c r="G145">
+        <v>7</v>
+      </c>
+      <c r="H145" t="s">
+        <v>19</v>
+      </c>
+      <c r="I145" t="s">
+        <v>52</v>
+      </c>
+      <c r="J145" t="s">
+        <v>21</v>
+      </c>
+      <c r="K145" t="s">
+        <v>22</v>
+      </c>
+      <c r="L145">
+        <v>24</v>
+      </c>
+      <c r="M145">
+        <v>16.0</v>
+      </c>
+      <c r="N145" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146">
+        <v>25</v>
+      </c>
+      <c r="G146">
+        <v>7</v>
+      </c>
+      <c r="H146" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" t="s">
+        <v>53</v>
+      </c>
+      <c r="J146" t="s">
+        <v>21</v>
+      </c>
+      <c r="K146" t="s">
+        <v>22</v>
+      </c>
+      <c r="L146">
+        <v>25</v>
+      </c>
+      <c r="M146">
+        <v>25.0</v>
+      </c>
+      <c r="N146" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147">
+        <v>10</v>
+      </c>
+      <c r="G147">
+        <v>3</v>
+      </c>
+      <c r="H147" t="s">
+        <v>19</v>
+      </c>
+      <c r="I147" t="s">
+        <v>53</v>
+      </c>
+      <c r="J147" t="s">
+        <v>21</v>
+      </c>
+      <c r="K147" t="s">
+        <v>22</v>
+      </c>
+      <c r="L147">
+        <v>25</v>
+      </c>
+      <c r="M147">
+        <v>8.0</v>
+      </c>
+      <c r="N147" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148" t="s">
+        <v>18</v>
+      </c>
+      <c r="F148">
+        <v>10</v>
+      </c>
+      <c r="G148">
+        <v>3</v>
+      </c>
+      <c r="H148" t="s">
+        <v>19</v>
+      </c>
+      <c r="I148" t="s">
+        <v>53</v>
+      </c>
+      <c r="J148" t="s">
+        <v>21</v>
+      </c>
+      <c r="K148" t="s">
+        <v>22</v>
+      </c>
+      <c r="L148">
+        <v>25</v>
+      </c>
+      <c r="M148">
+        <v>10.0</v>
+      </c>
+      <c r="N148" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>26</v>
+      </c>
+      <c r="E149" t="s">
+        <v>18</v>
+      </c>
+      <c r="F149">
+        <v>25</v>
+      </c>
+      <c r="G149">
+        <v>7</v>
+      </c>
+      <c r="H149" t="s">
+        <v>19</v>
+      </c>
+      <c r="I149" t="s">
+        <v>53</v>
+      </c>
+      <c r="J149" t="s">
+        <v>21</v>
+      </c>
+      <c r="K149" t="s">
+        <v>22</v>
+      </c>
+      <c r="L149">
+        <v>25</v>
+      </c>
+      <c r="M149">
+        <v>16.5</v>
+      </c>
+      <c r="N149" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" t="s">
+        <v>27</v>
+      </c>
+      <c r="E150" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150">
+        <v>25</v>
+      </c>
+      <c r="G150">
+        <v>7</v>
+      </c>
+      <c r="H150" t="s">
+        <v>19</v>
+      </c>
+      <c r="I150" t="s">
+        <v>53</v>
+      </c>
+      <c r="J150" t="s">
+        <v>21</v>
+      </c>
+      <c r="K150" t="s">
+        <v>22</v>
+      </c>
+      <c r="L150">
+        <v>25</v>
+      </c>
+      <c r="M150">
+        <v>19.0</v>
+      </c>
+      <c r="N150" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" t="s">
+        <v>18</v>
+      </c>
+      <c r="F151">
+        <v>25</v>
+      </c>
+      <c r="G151">
+        <v>7</v>
+      </c>
+      <c r="H151" t="s">
+        <v>19</v>
+      </c>
+      <c r="I151" t="s">
+        <v>53</v>
+      </c>
+      <c r="J151" t="s">
+        <v>21</v>
+      </c>
+      <c r="K151" t="s">
+        <v>22</v>
+      </c>
+      <c r="L151">
+        <v>25</v>
+      </c>
+      <c r="M151">
+        <v>19.0</v>
+      </c>
+      <c r="N151" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" t="s">
+        <v>18</v>
+      </c>
+      <c r="F152">
+        <v>25</v>
+      </c>
+      <c r="G152">
+        <v>7</v>
+      </c>
+      <c r="H152" t="s">
+        <v>19</v>
+      </c>
+      <c r="I152" t="s">
+        <v>54</v>
+      </c>
+      <c r="J152" t="s">
+        <v>21</v>
+      </c>
+      <c r="K152" t="s">
+        <v>22</v>
+      </c>
+      <c r="L152">
+        <v>26</v>
+      </c>
+      <c r="M152">
+        <v>25.0</v>
+      </c>
+      <c r="N152" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>24</v>
+      </c>
+      <c r="E153" t="s">
+        <v>18</v>
+      </c>
+      <c r="F153">
+        <v>10</v>
+      </c>
+      <c r="G153">
+        <v>3</v>
+      </c>
+      <c r="H153" t="s">
+        <v>19</v>
+      </c>
+      <c r="I153" t="s">
+        <v>54</v>
+      </c>
+      <c r="J153" t="s">
+        <v>21</v>
+      </c>
+      <c r="K153" t="s">
+        <v>22</v>
+      </c>
+      <c r="L153">
+        <v>26</v>
+      </c>
+      <c r="M153">
+        <v>10.0</v>
+      </c>
+      <c r="N153" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" t="s">
+        <v>25</v>
+      </c>
+      <c r="E154" t="s">
+        <v>18</v>
+      </c>
+      <c r="F154">
+        <v>10</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
+      </c>
+      <c r="H154" t="s">
+        <v>19</v>
+      </c>
+      <c r="I154" t="s">
+        <v>54</v>
+      </c>
+      <c r="J154" t="s">
+        <v>21</v>
+      </c>
+      <c r="K154" t="s">
+        <v>22</v>
+      </c>
+      <c r="L154">
+        <v>26</v>
+      </c>
+      <c r="M154">
+        <v>10.0</v>
+      </c>
+      <c r="N154" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>26</v>
+      </c>
+      <c r="E155" t="s">
+        <v>18</v>
+      </c>
+      <c r="F155">
+        <v>25</v>
+      </c>
+      <c r="G155">
+        <v>7</v>
+      </c>
+      <c r="H155" t="s">
+        <v>19</v>
+      </c>
+      <c r="I155" t="s">
+        <v>54</v>
+      </c>
+      <c r="J155" t="s">
+        <v>21</v>
+      </c>
+      <c r="K155" t="s">
+        <v>22</v>
+      </c>
+      <c r="L155">
+        <v>26</v>
+      </c>
+      <c r="M155">
+        <v>20.0</v>
+      </c>
+      <c r="N155" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" t="s">
+        <v>27</v>
+      </c>
+      <c r="E156" t="s">
+        <v>18</v>
+      </c>
+      <c r="F156">
+        <v>25</v>
+      </c>
+      <c r="G156">
+        <v>7</v>
+      </c>
+      <c r="H156" t="s">
+        <v>19</v>
+      </c>
+      <c r="I156" t="s">
+        <v>54</v>
+      </c>
+      <c r="J156" t="s">
+        <v>21</v>
+      </c>
+      <c r="K156" t="s">
+        <v>22</v>
+      </c>
+      <c r="L156">
+        <v>26</v>
+      </c>
+      <c r="M156">
+        <v>23.0</v>
+      </c>
+      <c r="N156" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" t="s">
+        <v>18</v>
+      </c>
+      <c r="F157">
+        <v>25</v>
+      </c>
+      <c r="G157">
+        <v>7</v>
+      </c>
+      <c r="H157" t="s">
+        <v>19</v>
+      </c>
+      <c r="I157" t="s">
+        <v>54</v>
+      </c>
+      <c r="J157" t="s">
+        <v>21</v>
+      </c>
+      <c r="K157" t="s">
+        <v>22</v>
+      </c>
+      <c r="L157">
+        <v>26</v>
+      </c>
+      <c r="M157">
+        <v>16.0</v>
+      </c>
+      <c r="N157" t="s">
         <v>23</v>
       </c>
     </row>
